--- a/results/mp/tinybert/toy-spam/confidence/210/stop-words-topk-0.1/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/toy-spam/confidence/210/stop-words-topk-0.1/avg_0.002_scores.xlsx
@@ -43,186 +43,186 @@
     <t>poorly</t>
   </si>
   <si>
+    <t>crap</t>
+  </si>
+  <si>
     <t>disappointing</t>
   </si>
   <si>
     <t>returned</t>
   </si>
   <si>
+    <t>however</t>
+  </si>
+  <si>
     <t>broke</t>
   </si>
   <si>
-    <t>however</t>
-  </si>
-  <si>
-    <t>crap</t>
-  </si>
-  <si>
     <t>disappointed</t>
   </si>
   <si>
     <t>poor</t>
   </si>
   <si>
+    <t>ripped</t>
+  </si>
+  <si>
     <t>waste</t>
   </si>
   <si>
+    <t>thin</t>
+  </si>
+  <si>
+    <t>probably</t>
+  </si>
+  <si>
     <t>smaller</t>
   </si>
   <si>
-    <t>ripped</t>
+    <t>junk</t>
+  </si>
+  <si>
+    <t>noise</t>
+  </si>
+  <si>
+    <t>missing</t>
+  </si>
+  <si>
+    <t>tiny</t>
+  </si>
+  <si>
+    <t>pool</t>
+  </si>
+  <si>
+    <t>instead</t>
+  </si>
+  <si>
+    <t>okay</t>
+  </si>
+  <si>
+    <t>small</t>
+  </si>
+  <si>
+    <t>broken</t>
   </si>
   <si>
     <t>water</t>
   </si>
   <si>
-    <t>thin</t>
-  </si>
-  <si>
-    <t>junk</t>
-  </si>
-  <si>
-    <t>instead</t>
-  </si>
-  <si>
-    <t>probably</t>
-  </si>
-  <si>
     <t>guess</t>
   </si>
   <si>
-    <t>small</t>
-  </si>
-  <si>
-    <t>tiny</t>
-  </si>
-  <si>
-    <t>broken</t>
-  </si>
-  <si>
-    <t>pool</t>
-  </si>
-  <si>
-    <t>okay</t>
+    <t>plastic</t>
   </si>
   <si>
     <t>apart</t>
   </si>
   <si>
+    <t>less</t>
+  </si>
+  <si>
     <t>paint</t>
   </si>
   <si>
-    <t>plastic</t>
-  </si>
-  <si>
-    <t>missing</t>
-  </si>
-  <si>
-    <t>fell</t>
+    <t>difficult</t>
+  </si>
+  <si>
+    <t>di</t>
   </si>
   <si>
     <t>ok</t>
   </si>
   <si>
-    <t>less</t>
-  </si>
-  <si>
     <t>thought</t>
   </si>
   <si>
     <t>cheap</t>
   </si>
   <si>
-    <t>tried</t>
-  </si>
-  <si>
     <t>half</t>
   </si>
   <si>
+    <t>sound</t>
+  </si>
+  <si>
+    <t>bit</t>
+  </si>
+  <si>
+    <t>bad</t>
+  </si>
+  <si>
     <t>size</t>
   </si>
   <si>
-    <t>difficult</t>
-  </si>
-  <si>
-    <t>di</t>
-  </si>
-  <si>
-    <t>bit</t>
+    <t>item</t>
+  </si>
+  <si>
+    <t>money</t>
   </si>
   <si>
     <t>though</t>
   </si>
   <si>
-    <t>picture</t>
-  </si>
-  <si>
-    <t>item</t>
+    <t>worked</t>
+  </si>
+  <si>
+    <t>work</t>
   </si>
   <si>
     <t>would</t>
   </si>
   <si>
-    <t>money</t>
+    <t>could</t>
+  </si>
+  <si>
+    <t>used</t>
   </si>
   <si>
     <t>1</t>
   </si>
   <si>
+    <t>better</t>
+  </si>
+  <si>
     <t>product</t>
   </si>
   <si>
+    <t>look</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
     <t>hard</t>
   </si>
   <si>
-    <t>used</t>
-  </si>
-  <si>
-    <t>work</t>
+    <t>3</t>
+  </si>
+  <si>
+    <t>pieces</t>
   </si>
   <si>
     <t>back</t>
   </si>
   <si>
-    <t>price</t>
-  </si>
-  <si>
-    <t>could</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>expected</t>
+    <t>use</t>
   </si>
   <si>
     <t>2</t>
   </si>
   <si>
-    <t>use</t>
-  </si>
-  <si>
-    <t>box</t>
-  </si>
-  <si>
-    <t>pieces</t>
-  </si>
-  <si>
-    <t>3</t>
+    <t>5</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>even</t>
   </si>
   <si>
     <t>little</t>
   </si>
   <si>
-    <t>even</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>made</t>
-  </si>
-  <si>
     <t>much</t>
   </si>
   <si>
@@ -244,12 +244,12 @@
     <t>amazing</t>
   </si>
   <si>
+    <t>favorite</t>
+  </si>
+  <si>
     <t>enjoyable</t>
   </si>
   <si>
-    <t>favorite</t>
-  </si>
-  <si>
     <t>classic</t>
   </si>
   <si>
@@ -271,22 +271,22 @@
     <t>best</t>
   </si>
   <si>
+    <t>perfect</t>
+  </si>
+  <si>
     <t>loved</t>
   </si>
   <si>
-    <t>perfect</t>
-  </si>
-  <si>
     <t>friends</t>
   </si>
   <si>
+    <t>christmas</t>
+  </si>
+  <si>
+    <t>enjoy</t>
+  </si>
+  <si>
     <t>fun</t>
-  </si>
-  <si>
-    <t>christmas</t>
-  </si>
-  <si>
-    <t>family</t>
   </si>
   <si>
     <t>game</t>
@@ -769,13 +769,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8409090909090909</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="C4">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="D4">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -787,19 +787,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>74</v>
       </c>
       <c r="K4">
-        <v>0.8</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="L4">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="M4">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -811,7 +811,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -819,13 +819,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8157894736842105</v>
+        <v>0.8409090909090909</v>
       </c>
       <c r="C5">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="D5">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -869,13 +869,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7669902912621359</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="C6">
-        <v>158</v>
+        <v>30</v>
       </c>
       <c r="D6">
-        <v>158</v>
+        <v>30</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -887,19 +887,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>76</v>
       </c>
       <c r="K6">
-        <v>0.7083333333333334</v>
+        <v>0.7311827956989247</v>
       </c>
       <c r="L6">
-        <v>17</v>
+        <v>68</v>
       </c>
       <c r="M6">
-        <v>17</v>
+        <v>68</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -911,7 +911,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>7</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -919,13 +919,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.75</v>
+        <v>0.78125</v>
       </c>
       <c r="C7">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D7">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -937,19 +937,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>77</v>
       </c>
       <c r="K7">
-        <v>0.6344086021505376</v>
+        <v>0.625</v>
       </c>
       <c r="L7">
-        <v>59</v>
+        <v>15</v>
       </c>
       <c r="M7">
-        <v>59</v>
+        <v>15</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -961,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>34</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -969,13 +969,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7142857142857143</v>
+        <v>0.7572815533980582</v>
       </c>
       <c r="C8">
-        <v>15</v>
+        <v>156</v>
       </c>
       <c r="D8">
-        <v>15</v>
+        <v>156</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -987,19 +987,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>78</v>
       </c>
       <c r="K8">
-        <v>0.6226415094339622</v>
+        <v>0.6037735849056604</v>
       </c>
       <c r="L8">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M8">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1011,7 +1011,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1019,13 +1019,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7096774193548387</v>
+        <v>0.7204301075268817</v>
       </c>
       <c r="C9">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D9">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1037,19 +1037,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>79</v>
       </c>
       <c r="K9">
-        <v>0.546875</v>
+        <v>0.5</v>
       </c>
       <c r="L9">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="M9">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1061,7 +1061,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1069,13 +1069,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.704225352112676</v>
+        <v>0.7183098591549296</v>
       </c>
       <c r="C10">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D10">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1087,19 +1087,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>80</v>
       </c>
       <c r="K10">
-        <v>0.4202898550724637</v>
+        <v>0.4057971014492754</v>
       </c>
       <c r="L10">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M10">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1111,7 +1111,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1119,13 +1119,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.6621621621621622</v>
+        <v>0.7037037037037037</v>
       </c>
       <c r="C11">
-        <v>98</v>
+        <v>19</v>
       </c>
       <c r="D11">
-        <v>98</v>
+        <v>19</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1137,19 +1137,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>81</v>
       </c>
       <c r="K11">
-        <v>0.3508196721311476</v>
+        <v>0.3565573770491803</v>
       </c>
       <c r="L11">
-        <v>428</v>
+        <v>435</v>
       </c>
       <c r="M11">
-        <v>428</v>
+        <v>435</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1161,7 +1161,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>792</v>
+        <v>785</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1169,13 +1169,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.6302521008403361</v>
+        <v>0.6486486486486487</v>
       </c>
       <c r="C12">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="D12">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1187,7 +1187,7 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>82</v>
@@ -1219,13 +1219,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.6296296296296297</v>
+        <v>0.6206896551724138</v>
       </c>
       <c r="C13">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D13">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1237,19 +1237,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>83</v>
       </c>
       <c r="K13">
-        <v>0.2510373443983402</v>
+        <v>0.2448132780082987</v>
       </c>
       <c r="L13">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="M13">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1261,7 +1261,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>361</v>
+        <v>364</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1269,13 +1269,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.6190476190476191</v>
+        <v>0.6052631578947368</v>
       </c>
       <c r="C14">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D14">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1287,19 +1287,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>84</v>
       </c>
       <c r="K14">
-        <v>0.225</v>
+        <v>0.2416666666666667</v>
       </c>
       <c r="L14">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M14">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1319,13 +1319,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.5517241379310345</v>
+        <v>0.5798319327731093</v>
       </c>
       <c r="C15">
-        <v>16</v>
+        <v>69</v>
       </c>
       <c r="D15">
-        <v>16</v>
+        <v>69</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1337,19 +1337,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>85</v>
       </c>
       <c r="K15">
-        <v>0.1987767584097859</v>
+        <v>0.2228915662650602</v>
       </c>
       <c r="L15">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="M15">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1361,7 +1361,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>262</v>
+        <v>129</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1369,13 +1369,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.5454545454545454</v>
+        <v>0.5636363636363636</v>
       </c>
       <c r="C16">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D16">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1387,19 +1387,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>86</v>
       </c>
       <c r="K16">
-        <v>0.1867469879518072</v>
+        <v>0.1957186544342508</v>
       </c>
       <c r="L16">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="M16">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1411,7 +1411,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>135</v>
+        <v>263</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1419,13 +1419,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.5416666666666666</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="C17">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="D17">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1437,19 +1437,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>87</v>
       </c>
       <c r="K17">
-        <v>0.1375661375661376</v>
+        <v>0.1322751322751323</v>
       </c>
       <c r="L17">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M17">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1461,7 +1461,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1469,37 +1469,37 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.5263157894736842</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="C18">
+        <v>25</v>
+      </c>
+      <c r="D18">
+        <v>25</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18" t="b">
+        <v>0</v>
+      </c>
+      <c r="H18">
         <v>20</v>
-      </c>
-      <c r="D18">
-        <v>20</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18" t="b">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>18</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>88</v>
       </c>
       <c r="K18">
-        <v>0.08063102541630149</v>
+        <v>0.08835341365461848</v>
       </c>
       <c r="L18">
-        <v>92</v>
+        <v>22</v>
       </c>
       <c r="M18">
-        <v>92</v>
+        <v>22</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1511,7 +1511,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>1049</v>
+        <v>227</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1519,13 +1519,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.5</v>
+        <v>0.5428571428571428</v>
       </c>
       <c r="C19">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D19">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1537,19 +1537,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>89</v>
       </c>
       <c r="K19">
-        <v>0.07228915662650602</v>
+        <v>0.08064516129032258</v>
       </c>
       <c r="L19">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="M19">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1561,7 +1561,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>231</v>
+        <v>171</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1569,13 +1569,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.4869565217391305</v>
+        <v>0.5142857142857142</v>
       </c>
       <c r="C20">
-        <v>168</v>
+        <v>18</v>
       </c>
       <c r="D20">
-        <v>168</v>
+        <v>18</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1587,19 +1587,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>177</v>
+        <v>17</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>90</v>
       </c>
       <c r="K20">
-        <v>0.04735376044568245</v>
+        <v>0.07887817703768624</v>
       </c>
       <c r="L20">
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="M20">
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1611,7 +1611,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>342</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1619,13 +1619,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.4571428571428571</v>
+        <v>0.5</v>
       </c>
       <c r="C21">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D21">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1637,31 +1637,31 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>91</v>
       </c>
       <c r="K21">
-        <v>0.03378817413905133</v>
+        <v>0.03376623376623376</v>
       </c>
       <c r="L21">
         <v>52</v>
       </c>
       <c r="M21">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N21">
-        <v>0.96</v>
+        <v>0.98</v>
       </c>
       <c r="O21">
-        <v>0.04000000000000004</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P21" t="b">
         <v>1</v>
       </c>
       <c r="Q21">
-        <v>1487</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1669,13 +1669,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.4337349397590362</v>
+        <v>0.4814814814814815</v>
       </c>
       <c r="C22">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="D22">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1687,7 +1687,7 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>47</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1695,13 +1695,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.4285714285714285</v>
+        <v>0.4782608695652174</v>
       </c>
       <c r="C23">
-        <v>15</v>
+        <v>165</v>
       </c>
       <c r="D23">
-        <v>15</v>
+        <v>165</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1713,7 +1713,7 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>20</v>
+        <v>180</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1721,13 +1721,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.4259259259259259</v>
+        <v>0.4698795180722892</v>
       </c>
       <c r="C24">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="D24">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1739,7 +1739,7 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>31</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1747,13 +1747,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.4210526315789473</v>
+        <v>0.4523809523809524</v>
       </c>
       <c r="C25">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="D25">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1765,7 +1765,7 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>55</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1773,13 +1773,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.4126984126984127</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="C26">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D26">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1791,7 +1791,7 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1799,13 +1799,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.3937007874015748</v>
+        <v>0.4330708661417323</v>
       </c>
       <c r="C27">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D27">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1817,7 +1817,7 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1825,13 +1825,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.3777777777777778</v>
+        <v>0.4210526315789473</v>
       </c>
       <c r="C28">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="D28">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1843,7 +1843,7 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>28</v>
+        <v>55</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1851,13 +1851,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.3272727272727273</v>
+        <v>0.3833333333333334</v>
       </c>
       <c r="C29">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D29">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1877,13 +1877,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.3125</v>
+        <v>0.3809523809523809</v>
       </c>
       <c r="C30">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="D30">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1895,7 +1895,7 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>88</v>
+        <v>39</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -1903,13 +1903,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.3</v>
+        <v>0.3370786516853932</v>
       </c>
       <c r="C31">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="D31">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -1921,7 +1921,7 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>42</v>
+        <v>59</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -1929,13 +1929,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.297029702970297</v>
+        <v>0.328125</v>
       </c>
       <c r="C32">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="D32">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -1947,7 +1947,7 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>142</v>
+        <v>43</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1955,13 +1955,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.2843601895734597</v>
+        <v>0.3125</v>
       </c>
       <c r="C33">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="D33">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>151</v>
+        <v>88</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1981,13 +1981,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.2786885245901639</v>
+        <v>0.3118811881188119</v>
       </c>
       <c r="C34">
-        <v>17</v>
+        <v>63</v>
       </c>
       <c r="D34">
-        <v>17</v>
+        <v>63</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -1999,7 +1999,7 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>44</v>
+        <v>139</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2007,13 +2007,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.2777777777777778</v>
+        <v>0.2843601895734597</v>
       </c>
       <c r="C35">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="D35">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2025,7 +2025,7 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>39</v>
+        <v>151</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2033,13 +2033,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.2628865979381443</v>
+        <v>0.2777777777777778</v>
       </c>
       <c r="C36">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="D36">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2051,7 +2051,7 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>143</v>
+        <v>39</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2059,13 +2059,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.2584269662921349</v>
+        <v>0.2463768115942029</v>
       </c>
       <c r="C37">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D37">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2077,7 +2077,7 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>66</v>
+        <v>52</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2085,13 +2085,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.25</v>
+        <v>0.2346938775510204</v>
       </c>
       <c r="C38">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D38">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2103,7 +2103,7 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>48</v>
+        <v>75</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2111,13 +2111,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.2244897959183673</v>
+        <v>0.2238805970149254</v>
       </c>
       <c r="C39">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D39">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>76</v>
+        <v>52</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2137,13 +2137,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.2051282051282051</v>
+        <v>0.2061855670103093</v>
       </c>
       <c r="C40">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="D40">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2155,7 +2155,7 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>93</v>
+        <v>154</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2163,13 +2163,13 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.1958762886597938</v>
+        <v>0.1811594202898551</v>
       </c>
       <c r="C41">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="D41">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2181,7 +2181,7 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>78</v>
+        <v>226</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2189,13 +2189,13 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.1847826086956522</v>
+        <v>0.180379746835443</v>
       </c>
       <c r="C42">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="D42">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>225</v>
+        <v>259</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2215,13 +2215,13 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.1750741839762611</v>
+        <v>0.1794871794871795</v>
       </c>
       <c r="C43">
-        <v>118</v>
+        <v>21</v>
       </c>
       <c r="D43">
-        <v>118</v>
+        <v>21</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -2233,7 +2233,7 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>556</v>
+        <v>96</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2241,25 +2241,25 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.1708860759493671</v>
+        <v>0.1775700934579439</v>
       </c>
       <c r="C44">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="D44">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="E44">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="F44">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="G44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H44">
-        <v>262</v>
+        <v>88</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2267,13 +2267,13 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.1610169491525424</v>
+        <v>0.1772151898734177</v>
       </c>
       <c r="C45">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="D45">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -2285,7 +2285,7 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <v>99</v>
+        <v>260</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2293,13 +2293,13 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.1497797356828194</v>
+        <v>0.1750741839762611</v>
       </c>
       <c r="C46">
-        <v>68</v>
+        <v>118</v>
       </c>
       <c r="D46">
-        <v>68</v>
+        <v>118</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -2311,7 +2311,7 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <v>386</v>
+        <v>556</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2319,13 +2319,13 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.14</v>
+        <v>0.1719745222929936</v>
       </c>
       <c r="C47">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D47">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -2337,7 +2337,7 @@
         <v>0</v>
       </c>
       <c r="H47">
-        <v>172</v>
+        <v>130</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2345,13 +2345,13 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.1314285714285714</v>
+        <v>0.1371428571428571</v>
       </c>
       <c r="C48">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D48">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -2363,7 +2363,7 @@
         <v>0</v>
       </c>
       <c r="H48">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2371,13 +2371,13 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.129746835443038</v>
+        <v>0.1355932203389831</v>
       </c>
       <c r="C49">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="D49">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -2389,7 +2389,7 @@
         <v>0</v>
       </c>
       <c r="H49">
-        <v>275</v>
+        <v>102</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2397,13 +2397,13 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.1285714285714286</v>
+        <v>0.1355140186915888</v>
       </c>
       <c r="C50">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="D50">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -2415,7 +2415,7 @@
         <v>0</v>
       </c>
       <c r="H50">
-        <v>122</v>
+        <v>185</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2423,13 +2423,13 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.117816091954023</v>
+        <v>0.1277533039647577</v>
       </c>
       <c r="C51">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="D51">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -2441,7 +2441,7 @@
         <v>0</v>
       </c>
       <c r="H51">
-        <v>307</v>
+        <v>396</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2449,13 +2449,13 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.1146496815286624</v>
+        <v>0.125</v>
       </c>
       <c r="C52">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D52">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -2467,7 +2467,7 @@
         <v>0</v>
       </c>
       <c r="H52">
-        <v>139</v>
+        <v>112</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2475,13 +2475,13 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.1121495327102804</v>
+        <v>0.1235632183908046</v>
       </c>
       <c r="C53">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="D53">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -2493,7 +2493,7 @@
         <v>0</v>
       </c>
       <c r="H53">
-        <v>190</v>
+        <v>305</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2501,13 +2501,13 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.109375</v>
+        <v>0.12</v>
       </c>
       <c r="C54">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D54">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -2519,7 +2519,7 @@
         <v>0</v>
       </c>
       <c r="H54">
-        <v>171</v>
+        <v>176</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2527,13 +2527,13 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.09737827715355805</v>
+        <v>0.1129032258064516</v>
       </c>
       <c r="C55">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D55">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -2545,7 +2545,7 @@
         <v>0</v>
       </c>
       <c r="H55">
-        <v>241</v>
+        <v>220</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2553,13 +2553,13 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>0.09315068493150686</v>
+        <v>0.1092896174863388</v>
       </c>
       <c r="C56">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D56">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -2571,7 +2571,7 @@
         <v>0</v>
       </c>
       <c r="H56">
-        <v>331</v>
+        <v>163</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2579,13 +2579,13 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>0.08376963350785341</v>
+        <v>0.1071428571428571</v>
       </c>
       <c r="C57">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D57">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -2597,7 +2597,7 @@
         <v>0</v>
       </c>
       <c r="H57">
-        <v>175</v>
+        <v>125</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2605,13 +2605,13 @@
         <v>63</v>
       </c>
       <c r="B58">
-        <v>0.08196721311475409</v>
+        <v>0.1013698630136986</v>
       </c>
       <c r="C58">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="D58">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -2623,7 +2623,7 @@
         <v>0</v>
       </c>
       <c r="H58">
-        <v>168</v>
+        <v>328</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2631,25 +2631,25 @@
         <v>64</v>
       </c>
       <c r="B59">
-        <v>0.0728744939271255</v>
+        <v>0.09363295880149813</v>
       </c>
       <c r="C59">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D59">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E59">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F59">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H59">
-        <v>229</v>
+        <v>242</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2657,25 +2657,25 @@
         <v>65</v>
       </c>
       <c r="B60">
-        <v>0.06696428571428571</v>
+        <v>0.0851063829787234</v>
       </c>
       <c r="C60">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="D60">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="E60">
-        <v>0.03</v>
+        <v>0.06</v>
       </c>
       <c r="F60">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G60" t="b">
         <v>1</v>
       </c>
       <c r="H60">
-        <v>418</v>
+        <v>172</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2683,25 +2683,25 @@
         <v>66</v>
       </c>
       <c r="B61">
-        <v>0.05734767025089606</v>
+        <v>0.0625</v>
       </c>
       <c r="C61">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="D61">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="E61">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="F61">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="G61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H61">
-        <v>263</v>
+        <v>570</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2709,25 +2709,25 @@
         <v>67</v>
       </c>
       <c r="B62">
-        <v>0.05271828665568369</v>
+        <v>0.06071428571428571</v>
       </c>
       <c r="C62">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="D62">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="E62">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F62">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="G62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H62">
-        <v>575</v>
+        <v>263</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2735,25 +2735,25 @@
         <v>68</v>
       </c>
       <c r="B63">
-        <v>0.04746835443037975</v>
+        <v>0.06013363028953229</v>
       </c>
       <c r="C63">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="D63">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="E63">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="F63">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="G63" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H63">
-        <v>301</v>
+        <v>422</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2761,25 +2761,25 @@
         <v>69</v>
       </c>
       <c r="B64">
-        <v>0.04408352668213457</v>
+        <v>0.05324074074074074</v>
       </c>
       <c r="C64">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D64">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E64">
-        <v>0.14</v>
+        <v>0.08</v>
       </c>
       <c r="F64">
-        <v>0.86</v>
+        <v>0.92</v>
       </c>
       <c r="G64" t="b">
         <v>1</v>
       </c>
       <c r="H64">
-        <v>412</v>
+        <v>409</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2787,25 +2787,25 @@
         <v>70</v>
       </c>
       <c r="B65">
-        <v>0.02909647779479326</v>
+        <v>0.03211009174311927</v>
       </c>
       <c r="C65">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D65">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E65">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="F65">
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
       <c r="G65" t="b">
         <v>1</v>
       </c>
       <c r="H65">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2813,25 +2813,25 @@
         <v>71</v>
       </c>
       <c r="B66">
-        <v>0.02402022756005057</v>
+        <v>0.02149178255372946</v>
       </c>
       <c r="C66">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D66">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E66">
-        <v>0.14</v>
+        <v>0.15</v>
       </c>
       <c r="F66">
-        <v>0.86</v>
+        <v>0.85</v>
       </c>
       <c r="G66" t="b">
         <v>1</v>
       </c>
       <c r="H66">
-        <v>772</v>
+        <v>774</v>
       </c>
     </row>
   </sheetData>
